--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -15,8 +15,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Naga Venkat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <u/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Scope Of Work
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reverse Engineering
+- Schematic &amp; PCB Design
+- Component Selection
+- Assembling</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Projects</t>
   </si>
@@ -25,12 +93,6 @@
   </si>
   <si>
     <t>Smart Fusion Sero Controller</t>
-  </si>
-  <si>
-    <t>64 Channel Detector</t>
-  </si>
-  <si>
-    <t>60 Channel ADC</t>
   </si>
   <si>
     <t>R &amp; D</t>
@@ -163,6 +225,28 @@
 element 14,RS,
 Digi key.</t>
   </si>
+  <si>
+    <t>Price listing for software 
+and other requirements for developing System</t>
+  </si>
+  <si>
+    <t>Robotic ARM</t>
+  </si>
+  <si>
+    <t>NFTDC Driver Card</t>
+  </si>
+  <si>
+    <t>Delivered Gerber filer &amp; 
+.dsn schematic files through mail.</t>
+  </si>
+  <si>
+    <t>a) 64 Channel Detector
+b) 60 Channel ADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received Final BOM, purchase details and Schematic files.  
+</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +256,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$रु-44F]\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +271,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -203,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -385,32 +490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -440,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -475,21 +554,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BFL15"/>
+  <dimension ref="A1:BFL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,19 +874,23 @@
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="26" customWidth="1"/>
     <col min="9" max="9" width="25.28515625" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.5703125" customWidth="1"/>
     <col min="17" max="17" width="17.140625" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" customWidth="1"/>
     <col min="19" max="19" width="12.85546875" customWidth="1"/>
     <col min="20" max="20" width="16.5703125" customWidth="1"/>
     <col min="21" max="21" width="25.42578125" customWidth="1"/>
-    <col min="22" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" customWidth="1"/>
+    <col min="26" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.42578125" customWidth="1"/>
     <col min="40" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -981,13 +1056,13 @@
       <c r="U1" s="1">
         <v>42392</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="6">
         <v>42393</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="24">
         <v>42394</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="6">
         <v>42395</v>
       </c>
       <c r="Y1" s="1">
@@ -5484,20 +5559,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="W2" s="27"/>
     </row>
     <row r="3" spans="1:1520" ht="45.75" thickBot="1">
       <c r="A3" s="7">
@@ -5508,62 +5584,66 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:1520" ht="23.25" customHeight="1">
+    <row r="4" spans="1:1520" ht="45.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="28" t="s">
+      <c r="B4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>33</v>
+      <c r="W4" s="23" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1520" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:1520" ht="30.75" thickBot="1">
       <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="L5" s="29"/>
-      <c r="P5" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:1520" ht="30.75" thickBot="1">
+    <row r="6" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A6" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>15</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:1520">
+    <row r="7" spans="1:1520" ht="75.75" thickBot="1">
       <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="4"/>
+      <c r="Y7" s="23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A8" s="7"/>
@@ -5573,7 +5653,7 @@
     <row r="9" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A9" s="15"/>
       <c r="B9" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1520">
@@ -5581,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:1520">
@@ -5589,86 +5669,93 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:1520">
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:1520" ht="90.75" thickBot="1">
-      <c r="A14" s="7">
+    <row r="14" spans="1:1520" ht="15.75" thickBot="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1520" ht="90.75" thickBot="1">
+      <c r="A15" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:1520" ht="69" customHeight="1" thickBot="1">
-      <c r="A15" s="10">
-        <v>2</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>13</v>
+      <c r="B15" s="17" t="s">
+        <v>7</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>16</v>
       </c>
+      <c r="F15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="4"/>
       <c r="U15" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="W15" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1520" ht="69" hidden="1" customHeight="1" thickBot="1">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="P4:P5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Projects</t>
   </si>
@@ -246,6 +246,10 @@
   <si>
     <t xml:space="preserve">Received Final BOM, purchase details and Schematic files.  
 </t>
+  </si>
+  <si>
+    <t>Write up for getting 
+order from FOG department.</t>
   </si>
 </sst>
 </file>
@@ -859,10 +863,10 @@
   <dimension ref="A1:BFL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5574,6 +5578,9 @@
         <v>35</v>
       </c>
       <c r="W2" s="27"/>
+      <c r="Y2" s="23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:1520" ht="45.75" thickBot="1">
       <c r="A3" s="7">

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Projects</t>
   </si>
@@ -250,6 +250,15 @@
   <si>
     <t>Write up for getting 
 order from FOG department.</t>
+  </si>
+  <si>
+    <t>Completed write
+up for FOG Digitizer and FOG DC DC card and sharma sir sent this write up and BOMs to FOG department</t>
+  </si>
+  <si>
+    <t>Visited Zuti Engineering Serivces for 
+collecting information
+regarding their design.</t>
   </si>
 </sst>
 </file>
@@ -863,10 +872,10 @@
   <dimension ref="A1:BFL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -894,7 +903,8 @@
     <col min="23" max="23" width="24.28515625" customWidth="1"/>
     <col min="24" max="24" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.5703125" customWidth="1"/>
-    <col min="26" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.42578125" customWidth="1"/>
+    <col min="27" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="31" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.42578125" customWidth="1"/>
     <col min="40" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -5558,7 +5568,7 @@
         <v>43890</v>
       </c>
     </row>
-    <row r="2" spans="1:1520" ht="60.75" thickBot="1">
+    <row r="2" spans="1:1520" ht="120.75" thickBot="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -5580,6 +5590,9 @@
       <c r="W2" s="27"/>
       <c r="Y2" s="23" t="s">
         <v>43</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1520" ht="45.75" thickBot="1">
@@ -5622,7 +5635,7 @@
     </row>
     <row r="5" spans="1:1520" ht="30.75" thickBot="1">
       <c r="A5" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>12</v>
@@ -5633,7 +5646,7 @@
     </row>
     <row r="6" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A6" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>30</v>
@@ -5642,7 +5655,7 @@
     </row>
     <row r="7" spans="1:1520" ht="75.75" thickBot="1">
       <c r="A7" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>39</v>
@@ -5671,7 +5684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1520">
+    <row r="11" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -5679,12 +5692,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1520">
+    <row r="12" spans="1:1520" ht="105.75" thickBot="1">
       <c r="A12" s="7">
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>38</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:1520" ht="15.75" thickBot="1">
@@ -5697,7 +5713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1520" ht="90.75" thickBot="1">
+    <row r="15" spans="1:1520" ht="90.75" hidden="1" thickBot="1">
       <c r="A15" s="7">
         <v>1</v>
       </c>

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Projects</t>
   </si>
@@ -259,6 +259,10 @@
     <t>Visited Zuti Engineering Serivces for 
 collecting information
 regarding their design.</t>
+  </si>
+  <si>
+    <t>Knowledge Transfer
+from Dugra Lakshmi</t>
   </si>
 </sst>
 </file>
@@ -872,10 +876,10 @@
   <dimension ref="A1:BFL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5633,7 +5637,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1520" ht="30.75" thickBot="1">
+    <row r="5" spans="1:1520" ht="60.75" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -5642,6 +5646,9 @@
       </c>
       <c r="D5" s="23" t="s">
         <v>13</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:1520" ht="15.75" thickBot="1">

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Projects</t>
   </si>
@@ -261,8 +261,18 @@
 regarding their design.</t>
   </si>
   <si>
+    <t>changed C8051F360 controller in External to internal PCB it's working 
+writing boot loader code is in progress</t>
+  </si>
+  <si>
+    <t>Testing of 64 channel detector card with engineer's from Genius SK electronics.</t>
+  </si>
+  <si>
     <t>Knowledge Transfer
-from Dugra Lakshmi</t>
+from Dugra Lakshmi but there are issues to solve</t>
+  </si>
+  <si>
+    <t>Completed Boot loader GUI, Time Configuration GUI and Firmware for Boot Loader and application of External to Internal change over unit.</t>
   </si>
 </sst>
 </file>
@@ -536,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -577,6 +587,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -876,10 +889,10 @@
   <dimension ref="A1:BFL16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF5" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -908,8 +921,12 @@
     <col min="24" max="24" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.5703125" customWidth="1"/>
     <col min="26" max="26" width="16.42578125" customWidth="1"/>
-    <col min="27" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.28515625" customWidth="1"/>
+    <col min="31" max="31" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" customWidth="1"/>
+    <col min="33" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.42578125" customWidth="1"/>
     <col min="40" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="60" max="67" width="11" bestFit="1" customWidth="1"/>
@@ -1095,13 +1112,13 @@
       <c r="AB1" s="1">
         <v>42399</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="6">
         <v>42400</v>
       </c>
       <c r="AD1" s="1">
         <v>42401</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="6">
         <v>42402</v>
       </c>
       <c r="AF1" s="1">
@@ -5617,7 +5634,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:1520" ht="45.75" thickBot="1">
+    <row r="4" spans="1:1520" ht="75.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -5636,8 +5653,11 @@
       <c r="W4" s="23" t="s">
         <v>40</v>
       </c>
+      <c r="AD4" s="23" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:1520" ht="60.75" thickBot="1">
+    <row r="5" spans="1:1520" ht="105.75" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -5648,7 +5668,16 @@
         <v>13</v>
       </c>
       <c r="AA5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="23" t="s">
         <v>46</v>
+      </c>
+      <c r="AF5" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1520" ht="15.75" thickBot="1">

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Projects</t>
   </si>
@@ -230,9 +230,6 @@
 and other requirements for developing System</t>
   </si>
   <si>
-    <t>Robotic ARM</t>
-  </si>
-  <si>
     <t>NFTDC Driver Card</t>
   </si>
   <si>
@@ -273,6 +270,39 @@
   </si>
   <si>
     <t>Completed Boot loader GUI, Time Configuration GUI and Firmware for Boot Loader and application of External to Internal change over unit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZUTI Engineering Solutions
+Robotic ARM PCB Design </t>
+  </si>
+  <si>
+    <t>Test JIG for Relay Screening</t>
+  </si>
+  <si>
+    <t>Blue LED Light Source</t>
+  </si>
+  <si>
+    <t>Studying Drive and requirements 
+for PCB design</t>
+  </si>
+  <si>
+    <t>Studying Project</t>
+  </si>
+  <si>
+    <t>Given PCB size estimation 
+to ZUTI</t>
+  </si>
+  <si>
+    <t>Finalised cost 
+for ZUTI PCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifying schematic 
+of controller board </t>
+  </si>
+  <si>
+    <t>Costing and project analysis 
+Block Diagram development</t>
   </si>
 </sst>
 </file>
@@ -886,13 +916,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BFL16"/>
+  <dimension ref="A1:BFL20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -926,7 +956,11 @@
     <col min="30" max="30" width="19.28515625" customWidth="1"/>
     <col min="31" max="31" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21.42578125" customWidth="1"/>
-    <col min="33" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.28515625" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" customWidth="1"/>
+    <col min="37" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12.42578125" customWidth="1"/>
     <col min="40" max="59" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="60" max="67" width="11" bestFit="1" customWidth="1"/>
@@ -5610,10 +5644,10 @@
       </c>
       <c r="W2" s="27"/>
       <c r="Y2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1520" ht="45.75" thickBot="1">
@@ -5639,7 +5673,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>18</v>
@@ -5651,10 +5685,10 @@
         <v>31</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD4" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:1520" ht="105.75" thickBot="1">
@@ -5668,16 +5702,16 @@
         <v>13</v>
       </c>
       <c r="AA5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD5" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF5" s="28" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:1520" ht="15.75" thickBot="1">
@@ -5694,120 +5728,169 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4"/>
       <c r="Y7" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="AI7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ7" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
+    <row r="8" spans="1:1520" ht="60.75" thickBot="1">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="4"/>
+      <c r="AG8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="9" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14" t="s">
-        <v>3</v>
+    <row r="9" spans="1:1520" ht="75.75" thickBot="1">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="AJ9" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1520">
+    <row r="10" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="AG10" s="22" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A11" s="7">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
+    <row r="11" spans="1:1520">
+      <c r="A11" s="7"/>
+      <c r="B11" s="16"/>
+      <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:1520" ht="105.75" thickBot="1">
-      <c r="A12" s="7">
-        <v>3</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z12" s="23" t="s">
-        <v>45</v>
-      </c>
+    <row r="12" spans="1:1520" ht="15.75" thickBot="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:1520" ht="15.75" thickBot="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1520" ht="105.75" thickBot="1">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1520">
+      <c r="A16" s="7"/>
+      <c r="B16" s="16"/>
+      <c r="Z16" s="27"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:1520" ht="90.75" hidden="1" thickBot="1">
-      <c r="A15" s="7">
+    <row r="19" spans="1:23" ht="90.75" thickBot="1">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G19" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="23" t="s">
+      <c r="Q19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="U15" s="23" t="s">
+      <c r="R19" s="4"/>
+      <c r="U19" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="23" t="s">
+      <c r="W19" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:1520" ht="69" hidden="1" customHeight="1" thickBot="1">
-      <c r="A16" s="10">
+    <row r="20" spans="1:23" ht="69" customHeight="1" thickBot="1">
+      <c r="A20" s="10">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B20" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="R20" s="23" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Projects</t>
   </si>
@@ -303,6 +303,27 @@
   <si>
     <t>Costing and project analysis 
 Block Diagram development</t>
+  </si>
+  <si>
+    <t>BOM of NFTDC Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started Software Design Document </t>
+  </si>
+  <si>
+    <t>Completed Software Sesign Document</t>
+  </si>
+  <si>
+    <t>General Tasks</t>
+  </si>
+  <si>
+    <t>Barchart for Project Status</t>
+  </si>
+  <si>
+    <t>Started chart preparation in excel</t>
+  </si>
+  <si>
+    <t>Completed Chart preparation in excel</t>
   </si>
 </sst>
 </file>
@@ -365,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -572,11 +593,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -620,6 +654,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -916,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BFL20"/>
+  <dimension ref="A1:BFL23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AI16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5713,6 +5750,12 @@
       <c r="AF5" s="28" t="s">
         <v>48</v>
       </c>
+      <c r="AL5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="23" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:1520" ht="15.75" thickBot="1">
       <c r="A6" s="7">
@@ -5737,8 +5780,11 @@
       <c r="AI7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AJ7" s="23" t="s">
+      <c r="AJ7" s="29" t="s">
         <v>56</v>
+      </c>
+      <c r="AK7" s="23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:1520" ht="60.75" thickBot="1">
@@ -5771,7 +5817,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:1520" ht="15.75" thickBot="1">
+    <row r="10" spans="1:1520" ht="30.75" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -5780,6 +5826,9 @@
       </c>
       <c r="D10" s="4"/>
       <c r="AG10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK10" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5822,17 +5871,17 @@
       <c r="B16" s="16"/>
       <c r="Z16" s="27"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1">
+    <row r="17" spans="1:41" ht="15.75" thickBot="1">
       <c r="A17" s="7"/>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+    <row r="18" spans="1:41" ht="15.75" thickBot="1">
       <c r="A18" s="11"/>
       <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="90.75" thickBot="1">
+    <row r="19" spans="1:41" ht="90.75" thickBot="1">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -5868,7 +5917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="69" customHeight="1" thickBot="1">
+    <row r="20" spans="1:41" ht="69" customHeight="1" thickBot="1">
       <c r="A20" s="10">
         <v>2</v>
       </c>
@@ -5892,6 +5941,26 @@
       </c>
       <c r="R20" s="23" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B22" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" ht="60.75" thickBot="1">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO23" s="23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="587"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="587" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="76">
   <si>
     <t>Projects</t>
   </si>
@@ -324,15 +324,49 @@
   </si>
   <si>
     <t>Completed Chart preparation in excel</t>
+  </si>
+  <si>
+    <t>DRDL Tender Power Supply and Relay Module-2(PSRM-2)</t>
+  </si>
+  <si>
+    <t>Waiting for PCB &amp; Components</t>
+  </si>
+  <si>
+    <t>Waiting for FIM Components</t>
+  </si>
+  <si>
+    <t>Deliveried card to user</t>
+  </si>
+  <si>
+    <t>Don’t know</t>
+  </si>
+  <si>
+    <t>BOM prepared, quatations received</t>
+  </si>
+  <si>
+    <t>Quatations and dimentions sent, user asked quatations in detals with break up.</t>
+  </si>
+  <si>
+    <t>Block diagram level sent to ASL group</t>
+  </si>
+  <si>
+    <t>need to discuss with user</t>
+  </si>
+  <si>
+    <t>waiting for complete details to start.</t>
+  </si>
+  <si>
+    <t>completed charts, waiting for verification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$रु-44F]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -386,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -606,11 +640,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -659,6 +721,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,13 +1023,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BFL23"/>
+  <dimension ref="A1:BFL24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AI16" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AP19" sqref="AP19"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5943,23 +6013,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:41" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:41" ht="15.75" thickBot="1">
-      <c r="B22" s="14" t="s">
+    <row r="21" spans="1:41" ht="69" customHeight="1">
+      <c r="A21" s="30">
+        <v>3</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="1:41" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:41" ht="15.75" thickBot="1">
+      <c r="B23" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:41" ht="60.75" thickBot="1">
-      <c r="A23">
+    <row r="24" spans="1:41" ht="60.75" thickBot="1">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="AN23" s="23" t="s">
+      <c r="AN24" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="AO23" s="23" t="s">
+      <c r="AO24" s="23" t="s">
         <v>64</v>
       </c>
     </row>
@@ -5972,13 +6056,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34">
+        <v>42413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30">
+      <c r="A5" s="32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45">
+      <c r="A8" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="32"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="31"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="31"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="60">
+      <c r="A19" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45">
+      <c r="A21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="31"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project Status Report.xlsx
+++ b/Project Status Report.xlsx
@@ -366,7 +366,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$रु-44F]\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -727,7 +727,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6059,7 +6059,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6080,7 +6080,7 @@
       <c r="A2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="35" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="31" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6096,7 +6096,7 @@
       <c r="A4" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="31" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6104,12 +6104,13 @@
       <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="31" t="s">
         <v>69</v>
       </c>
     </row>
@@ -6117,7 +6118,7 @@
       <c r="A7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="31" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6125,7 +6126,7 @@
       <c r="A8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6133,7 +6134,7 @@
       <c r="A9" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6141,73 +6142,85 @@
       <c r="A10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="32"/>
+      <c r="B12" s="31"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="33" t="s">
         <v>3</v>
       </c>
+      <c r="B13" s="31"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>4</v>
       </c>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="31"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="33" t="s">
         <v>6</v>
       </c>
+      <c r="B18" s="31"/>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:2" ht="60">
       <c r="A20" s="32" t="s">
         <v>8</v>
       </c>
+      <c r="B20" s="31"/>
     </row>
     <row r="21" spans="1:2" ht="45">
       <c r="A21" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="33" t="s">
         <v>61</v>
       </c>
+      <c r="B23" s="31"/>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="32" t="s">
         <v>75</v>
       </c>
     </row>
